--- a/Daten/Wohnungen/Leerwohnungen-Stadt-Zuerich_processing_02.xlsx
+++ b/Daten/Wohnungen/Leerwohnungen-Stadt-Zuerich_processing_02.xlsx
@@ -492,40 +492,40 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>0.65</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>0.33</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>0.06</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>0.09</v>
       </c>
       <c r="H2">
-        <v>31</v>
+        <v>0.17</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>0.31</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>0.16</v>
       </c>
       <c r="L2">
-        <v>48</v>
+        <v>0.23</v>
       </c>
       <c r="M2">
-        <v>58</v>
+        <v>0.16</v>
       </c>
       <c r="N2">
-        <v>38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -536,40 +536,40 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>0.42</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>0.29</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
-        <v>62</v>
+        <v>0.38</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>0.21</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>0.14</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>0.19</v>
       </c>
       <c r="J3">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="K3">
-        <v>71</v>
+        <v>0.25</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>0.12</v>
       </c>
       <c r="M3">
-        <v>70</v>
+        <v>0.19</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -580,40 +580,40 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>0.23</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>0.17</v>
       </c>
       <c r="F4">
-        <v>69</v>
+        <v>0.43</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>0.27</v>
       </c>
       <c r="H4">
-        <v>39</v>
+        <v>0.22</v>
       </c>
       <c r="I4">
-        <v>79</v>
+        <v>0.39</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="K4">
-        <v>33</v>
+        <v>0.12</v>
       </c>
       <c r="L4">
-        <v>33</v>
+        <v>0.16</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>0.11</v>
       </c>
       <c r="N4">
-        <v>14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -624,40 +624,40 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>0.36</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0.24</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>0.63</v>
       </c>
       <c r="G5">
-        <v>88</v>
+        <v>1.08</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>0.16</v>
       </c>
       <c r="I5">
-        <v>54</v>
+        <v>0.27</v>
       </c>
       <c r="J5">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="K5">
-        <v>37</v>
+        <v>0.14</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M5">
-        <v>39</v>
+        <v>0.11</v>
       </c>
       <c r="N5">
-        <v>18</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -668,40 +668,40 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>0.49</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>0.19</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>0.08</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>0.13</v>
       </c>
       <c r="G6">
-        <v>112</v>
+        <v>1.43</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
-        <v>73</v>
+        <v>0.37</v>
       </c>
       <c r="J6">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="K6">
-        <v>37</v>
+        <v>0.14</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>0.13</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>0.14</v>
       </c>
       <c r="N6">
-        <v>33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -712,40 +712,40 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>0.28</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>0.16</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>0.03</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>0.11</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>0.19</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>0.17</v>
       </c>
       <c r="K7">
-        <v>35</v>
+        <v>0.12</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>0.1</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -756,40 +756,40 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>0.26</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>0.09</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>33</v>
+        <v>0.17</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>0.04</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>0.06</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>0.13</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -800,40 +800,40 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0.07880220646178093</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>0.04912496162112373</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>0.01574183392365211</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0.03262429857758058</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.01477978125923736</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>0.05099439061703213</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>0.1254012841091493</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>0.1108870967741935</v>
       </c>
       <c r="K9">
-        <v>19</v>
+        <v>0.07329398603556687</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>0.07341065922771986</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>0.0658939108036062</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>0.02094679514034353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -844,40 +844,40 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0.052</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>0.08</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>0.051</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0.027</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0.044</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>0.057</v>
       </c>
       <c r="I10">
-        <v>35</v>
+        <v>0.179</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>0.035</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>0.064</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>0.075</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>0.021</v>
       </c>
     </row>
   </sheetData>
